--- a/biology/Histoire de la zoologie et de la botanique/Julius_Kühn/Julius_Kühn.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Julius_Kühn/Julius_Kühn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Julius_K%C3%BChn</t>
+          <t>Julius_Kühn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Kühn, né le 23 octobre 1825 à Pulsnitz et mort le 14 avril 1910 à Halle en province de Saxe, est un ingénieur agronome et botaniste saxon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Julius_K%C3%BChn</t>
+          <t>Julius_Kühn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Kühn a commencé des études supérieures à l'université technique de Dresde en 1839. En tant qu'apprenti, il devint adjoint d'une exploitation agricole. De 1848 à 1855, il était responsable et direcetur d'exploitation à Bunzlau (auj. Bolesławiec) en  Basse-Silésie. Durant ce temps, il a étudié intensivement les maladies des cultures arables avec l'aide d'un microscope et a publié plusieurs articles à ce sujet.
 En 1856, il étudie à l'université de Leipzig, les maladies de la betterave
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Julius_K%C3%BChn</t>
+          <t>Julius_Kühn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anguillule des céréales et des bulbes</t>
         </is>
